--- a/data/trans_orig/P05A06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P05A06-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C15BFBF4-9F72-470C-8864-1F89391257FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEF242AE-0750-4B3C-AFD4-DDFFF9140A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7972D83A-2982-4B34-AD18-2CD266515EB8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AA31D24C-B0EC-427A-85CB-568848267A19}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="330">
   <si>
     <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2012 (Tasa respuesta: 99,46%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>73,62%</t>
   </si>
   <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
   </si>
   <si>
     <t>72,16%</t>
   </si>
   <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
   </si>
   <si>
     <t>72,77%</t>
   </si>
   <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
   </si>
   <si>
     <t>Algo</t>
@@ -106,7 +106,7 @@
     <t>23,05%</t>
   </si>
   <si>
-    <t>20,4%</t>
+    <t>20,47%</t>
   </si>
   <si>
     <t>25,79%</t>
@@ -115,19 +115,19 @@
     <t>24,8%</t>
   </si>
   <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
   </si>
   <si>
     <t>24,06%</t>
   </si>
   <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -136,16 +136,16 @@
     <t>3,34%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
   </si>
   <si>
     <t>3,03%</t>
   </si>
   <si>
-    <t>2,2%</t>
+    <t>2,25%</t>
   </si>
   <si>
     <t>4,08%</t>
@@ -154,874 +154,877 @@
     <t>3,16%</t>
   </si>
   <si>
-    <t>2,45%</t>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2016 (Tasa respuesta: 99,31%)</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2023 (Tasa respuesta: 99,65%)</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
   </si>
   <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2015 (Tasa respuesta: 99,31%)</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
   </si>
   <si>
     <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2023 (Tasa respuesta: 99,65%)</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
   </si>
   <si>
     <t>4,93%</t>
@@ -1436,7 +1439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7FE3E11-5BCC-4F27-97B4-1395B4DC89EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8E494DE-9BF2-4513-B523-AB33A136A990}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1587,7 +1590,7 @@
         <v>1549</v>
       </c>
       <c r="N4" s="7">
-        <v>1671183</v>
+        <v>1671184</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1740,7 +1743,7 @@
         <v>2141</v>
       </c>
       <c r="N7" s="7">
-        <v>2296417</v>
+        <v>2296418</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1880,16 +1883,16 @@
         <v>61</v>
       </c>
       <c r="I10" s="7">
-        <v>67232</v>
+        <v>67233</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>140</v>
@@ -1898,13 +1901,13 @@
         <v>151371</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1931,7 +1934,7 @@
         <v>1624</v>
       </c>
       <c r="I11" s="7">
-        <v>1745440</v>
+        <v>1745441</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1960,7 +1963,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1972,13 +1975,13 @@
         <v>340774</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>297</v>
@@ -1987,13 +1990,13 @@
         <v>331265</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>604</v>
@@ -2002,13 +2005,13 @@
         <v>672039</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2023,13 +2026,13 @@
         <v>120649</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>104</v>
@@ -2038,13 +2041,13 @@
         <v>116569</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>218</v>
@@ -2053,10 +2056,10 @@
         <v>237218</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>86</v>
@@ -2214,7 +2217,7 @@
         <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2229,13 +2232,13 @@
         <v>844053</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>840</v>
@@ -2244,13 +2247,13 @@
         <v>906708</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>1636</v>
@@ -2259,13 +2262,13 @@
         <v>1750761</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,7 +2394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ABE9943-B5D1-489D-A4D7-57F58AC3AF3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8821CB-0DCD-450B-8C05-8EC669C678A7}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2602,7 +2605,7 @@
         <v>140</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2617,13 +2620,13 @@
         <v>31161</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H6" s="7">
         <v>34</v>
@@ -2635,10 +2638,10 @@
         <v>113</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M6" s="7">
         <v>64</v>
@@ -2647,13 +2650,13 @@
         <v>69977</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,13 +2724,13 @@
         <v>1582054</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>1453</v>
@@ -2736,13 +2739,13 @@
         <v>1511250</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>2939</v>
@@ -2751,13 +2754,13 @@
         <v>3093303</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,13 +2775,13 @@
         <v>408715</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H9" s="7">
         <v>380</v>
@@ -2787,13 +2790,13 @@
         <v>398767</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M9" s="7">
         <v>764</v>
@@ -2802,13 +2805,13 @@
         <v>807482</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2823,13 +2826,13 @@
         <v>75552</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H10" s="7">
         <v>63</v>
@@ -2838,13 +2841,13 @@
         <v>65211</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M10" s="7">
         <v>136</v>
@@ -2853,13 +2856,13 @@
         <v>140763</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,7 +2918,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2927,13 +2930,13 @@
         <v>420084</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H12" s="7">
         <v>412</v>
@@ -2942,13 +2945,13 @@
         <v>428363</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M12" s="7">
         <v>796</v>
@@ -2957,13 +2960,13 @@
         <v>848447</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2978,13 +2981,13 @@
         <v>113902</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H13" s="7">
         <v>95</v>
@@ -2993,13 +2996,13 @@
         <v>99041</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M13" s="7">
         <v>201</v>
@@ -3008,13 +3011,13 @@
         <v>212943</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,13 +3032,13 @@
         <v>10858</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -3044,13 +3047,13 @@
         <v>15343</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M14" s="7">
         <v>22</v>
@@ -3059,13 +3062,13 @@
         <v>26201</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3250,13 +3253,13 @@
         <v>119370</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>61</v>
+        <v>222</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>223</v>
+        <v>92</v>
       </c>
       <c r="M18" s="7">
         <v>222</v>
@@ -3346,7 +3349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2645764-6A3C-4E14-8B92-66AFD8D2CC05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B42150F-85AC-460E-A9A0-82B8A6DDFA22}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3796,10 +3799,10 @@
         <v>275</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M10" s="7">
         <v>187</v>
@@ -3808,13 +3811,13 @@
         <v>188966</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3870,7 +3873,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3882,13 +3885,13 @@
         <v>558500</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H12" s="7">
         <v>843</v>
@@ -3897,13 +3900,13 @@
         <v>595733</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M12" s="7">
         <v>1420</v>
@@ -3912,13 +3915,13 @@
         <v>1154234</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,13 +3936,13 @@
         <v>95247</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H13" s="7">
         <v>129</v>
@@ -3948,13 +3951,13 @@
         <v>96658</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M13" s="7">
         <v>217</v>
@@ -3963,13 +3966,13 @@
         <v>191905</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,13 +3987,13 @@
         <v>18108</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -3999,13 +4002,13 @@
         <v>17668</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="M14" s="7">
         <v>39</v>
@@ -4196,7 +4199,7 @@
         <v>324</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H18" s="7">
         <v>211</v>
@@ -4223,10 +4226,10 @@
         <v>327</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>195</v>
+        <v>328</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P05A06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P05A06-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEF242AE-0750-4B3C-AFD4-DDFFF9140A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E761AB76-ACFC-4152-A705-C0909B3AFB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AA31D24C-B0EC-427A-85CB-568848267A19}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AFA5A34A-F0CC-4B56-B57E-83B17BC3D5A2}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -76,28 +76,28 @@
     <t>73,62%</t>
   </si>
   <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
   </si>
   <si>
     <t>72,16%</t>
   </si>
   <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
   </si>
   <si>
     <t>72,77%</t>
   </si>
   <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
   </si>
   <si>
     <t>Algo</t>
@@ -106,28 +106,28 @@
     <t>23,05%</t>
   </si>
   <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
   </si>
   <si>
     <t>24,8%</t>
   </si>
   <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
   </si>
   <si>
     <t>24,06%</t>
   </si>
   <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -136,898 +136,898 @@
     <t>3,34%</t>
   </si>
   <si>
-    <t>2,36%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2016 (Tasa respuesta: 99,31%)</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2023 (Tasa respuesta: 99,65%)</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
   </si>
   <si>
     <t>4,62%</t>
   </si>
   <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2016 (Tasa respuesta: 99,31%)</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2023 (Tasa respuesta: 99,65%)</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
   </si>
   <si>
     <t>13,37%</t>
   </si>
   <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
   </si>
   <si>
     <t>12,83%</t>
   </si>
   <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
   </si>
   <si>
     <t>4,5%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
   </si>
   <si>
     <t>4,4%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
   </si>
 </sst>
 </file>
@@ -1439,7 +1439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8E494DE-9BF2-4513-B523-AB33A136A990}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0637A31D-3284-40A2-8610-6CB858F066B1}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1590,7 +1590,7 @@
         <v>1549</v>
       </c>
       <c r="N4" s="7">
-        <v>1671184</v>
+        <v>1671183</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1743,7 +1743,7 @@
         <v>2141</v>
       </c>
       <c r="N7" s="7">
-        <v>2296418</v>
+        <v>2296417</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1883,16 +1883,16 @@
         <v>61</v>
       </c>
       <c r="I10" s="7">
-        <v>67233</v>
+        <v>67232</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>140</v>
@@ -1901,13 +1901,13 @@
         <v>151371</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1934,7 +1934,7 @@
         <v>1624</v>
       </c>
       <c r="I11" s="7">
-        <v>1745441</v>
+        <v>1745440</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1963,7 +1963,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1975,13 +1975,13 @@
         <v>340774</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>297</v>
@@ -1990,13 +1990,13 @@
         <v>331265</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>604</v>
@@ -2005,13 +2005,13 @@
         <v>672039</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,13 +2026,13 @@
         <v>120649</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>104</v>
@@ -2041,13 +2041,13 @@
         <v>116569</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>218</v>
@@ -2056,13 +2056,13 @@
         <v>237218</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2077,13 +2077,13 @@
         <v>17727</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -2092,13 +2092,13 @@
         <v>10797</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -2107,13 +2107,13 @@
         <v>28525</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2181,13 +2181,13 @@
         <v>2421739</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>2325</v>
@@ -2196,13 +2196,13 @@
         <v>2508598</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>4589</v>
@@ -2211,13 +2211,13 @@
         <v>4930336</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2232,13 +2232,13 @@
         <v>844053</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>840</v>
@@ -2247,13 +2247,13 @@
         <v>906708</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>1636</v>
@@ -2262,13 +2262,13 @@
         <v>1750761</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2283,13 +2283,13 @@
         <v>134146</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>111</v>
@@ -2298,13 +2298,13 @@
         <v>118374</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>237</v>
@@ -2313,13 +2313,13 @@
         <v>252520</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2375,7 +2375,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2394,7 +2394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8821CB-0DCD-450B-8C05-8EC669C678A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D6F3EE-4447-47B9-90FE-6F3DB1E9B4E4}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2411,7 +2411,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2518,10 +2518,10 @@
         <v>559266</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>126</v>
@@ -2545,7 +2545,7 @@
         <v>1216</v>
       </c>
       <c r="N4" s="7">
-        <v>1283716</v>
+        <v>1283715</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>130</v>
@@ -2605,7 +2605,7 @@
         <v>140</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,7 +2620,7 @@
         <v>31161</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>142</v>
@@ -2635,7 +2635,7 @@
         <v>38816</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>144</v>
@@ -2698,7 +2698,7 @@
         <v>1638</v>
       </c>
       <c r="N7" s="7">
-        <v>1732627</v>
+        <v>1732626</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -2727,10 +2727,10 @@
         <v>149</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H8" s="7">
         <v>1453</v>
@@ -2739,13 +2739,13 @@
         <v>1511250</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M8" s="7">
         <v>2939</v>
@@ -2862,7 +2862,7 @@
         <v>173</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,7 +2918,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2930,13 +2930,13 @@
         <v>420084</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H12" s="7">
         <v>412</v>
@@ -2945,13 +2945,13 @@
         <v>428363</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M12" s="7">
         <v>796</v>
@@ -2960,13 +2960,13 @@
         <v>848447</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,13 +2981,13 @@
         <v>113902</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H13" s="7">
         <v>95</v>
@@ -2996,13 +2996,13 @@
         <v>99041</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M13" s="7">
         <v>201</v>
@@ -3011,13 +3011,13 @@
         <v>212943</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,13 +3032,13 @@
         <v>10858</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -3047,7 +3047,7 @@
         <v>15343</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>196</v>
@@ -3253,13 +3253,13 @@
         <v>119370</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>223</v>
-      </c>
       <c r="L18" s="7" t="s">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="M18" s="7">
         <v>222</v>
@@ -3268,13 +3268,13 @@
         <v>236941</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,7 +3330,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3349,7 +3349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B42150F-85AC-460E-A9A0-82B8A6DDFA22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09BE06B-666E-4856-BB57-48193FBF02A0}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3366,7 +3366,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3473,13 +3473,13 @@
         <v>430368</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H4" s="7">
         <v>1158</v>
@@ -3488,13 +3488,13 @@
         <v>662444</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>1715</v>
@@ -3503,13 +3503,13 @@
         <v>1092812</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3524,13 +3524,13 @@
         <v>67331</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>190</v>
@@ -3539,13 +3539,13 @@
         <v>121490</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>274</v>
@@ -3554,13 +3554,13 @@
         <v>188821</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,13 +3575,13 @@
         <v>40635</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H6" s="7">
         <v>75</v>
@@ -3590,13 +3590,13 @@
         <v>49422</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M6" s="7">
         <v>121</v>
@@ -3605,13 +3605,13 @@
         <v>90058</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,13 +3679,13 @@
         <v>1814388</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H8" s="7">
         <v>2434</v>
@@ -3694,28 +3694,28 @@
         <v>1860797</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M8" s="7">
         <v>4116</v>
       </c>
       <c r="N8" s="7">
-        <v>3675186</v>
+        <v>3675185</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3730,13 +3730,13 @@
         <v>248960</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H9" s="7">
         <v>369</v>
@@ -3745,13 +3745,13 @@
         <v>288377</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M9" s="7">
         <v>598</v>
@@ -3760,13 +3760,13 @@
         <v>537337</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,10 +3784,10 @@
         <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H10" s="7">
         <v>111</v>
@@ -3796,13 +3796,13 @@
         <v>96113</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>114</v>
+        <v>274</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="M10" s="7">
         <v>187</v>
@@ -3811,13 +3811,13 @@
         <v>188966</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,7 +3859,7 @@
         <v>4901</v>
       </c>
       <c r="N11" s="7">
-        <v>4401489</v>
+        <v>4401488</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -3873,7 +3873,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3885,13 +3885,13 @@
         <v>558500</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H12" s="7">
         <v>843</v>
@@ -3900,13 +3900,13 @@
         <v>595733</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M12" s="7">
         <v>1420</v>
@@ -3915,13 +3915,13 @@
         <v>1154234</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,13 +3936,13 @@
         <v>95247</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H13" s="7">
         <v>129</v>
@@ -3951,13 +3951,13 @@
         <v>96658</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M13" s="7">
         <v>217</v>
@@ -3966,13 +3966,13 @@
         <v>191905</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,13 +3987,13 @@
         <v>18108</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -4002,13 +4002,13 @@
         <v>17668</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>303</v>
+        <v>88</v>
       </c>
       <c r="M14" s="7">
         <v>39</v>
@@ -4017,13 +4017,13 @@
         <v>35776</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4091,13 @@
         <v>2803257</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H16" s="7">
         <v>4435</v>
@@ -4106,13 +4106,13 @@
         <v>3118975</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>259</v>
+        <v>308</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M16" s="7">
         <v>7251</v>
@@ -4121,13 +4121,13 @@
         <v>5922232</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,13 +4142,13 @@
         <v>411538</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H17" s="7">
         <v>688</v>
@@ -4157,13 +4157,13 @@
         <v>506525</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>272</v>
+        <v>316</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M17" s="7">
         <v>1089</v>
@@ -4172,13 +4172,13 @@
         <v>918063</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4193,13 @@
         <v>151596</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H18" s="7">
         <v>211</v>
@@ -4285,7 +4285,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05A06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P05A06-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E761AB76-ACFC-4152-A705-C0909B3AFB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BED416CD-422C-4EE9-A994-D4FAA85C1152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AFA5A34A-F0CC-4B56-B57E-83B17BC3D5A2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4732499C-235E-4285-87EC-C8B5407D9492}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="331">
   <si>
     <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2012 (Tasa respuesta: 99,46%)</t>
   </si>
@@ -721,313 +721,316 @@
     <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2023 (Tasa respuesta: 99,65%)</t>
   </si>
   <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
   </si>
   <si>
     <t>13,77%</t>
   </si>
   <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
     <t>12,1%</t>
   </si>
   <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
   </si>
   <si>
     <t>3,31%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
   </si>
 </sst>
 </file>
@@ -1439,7 +1442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0637A31D-3284-40A2-8610-6CB858F066B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A865DF-A3AB-4D5C-9152-2F38B8871D71}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1883,7 +1886,7 @@
         <v>61</v>
       </c>
       <c r="I10" s="7">
-        <v>67232</v>
+        <v>67233</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -1934,7 +1937,7 @@
         <v>1624</v>
       </c>
       <c r="I11" s="7">
-        <v>1745440</v>
+        <v>1745441</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -2346,7 +2349,7 @@
         <v>3276</v>
       </c>
       <c r="I19" s="7">
-        <v>3533680</v>
+        <v>3533679</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -2394,7 +2397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D6F3EE-4447-47B9-90FE-6F3DB1E9B4E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086C6837-ED66-4E77-AD3E-4CCC07DDBCC1}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2545,7 +2548,7 @@
         <v>1216</v>
       </c>
       <c r="N4" s="7">
-        <v>1283715</v>
+        <v>1283716</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>130</v>
@@ -2698,7 +2701,7 @@
         <v>1638</v>
       </c>
       <c r="N7" s="7">
-        <v>1732626</v>
+        <v>1732627</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -3349,7 +3352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09BE06B-666E-4856-BB57-48193FBF02A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B52820-0AC9-4732-BC6C-572C56923277}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3470,7 +3473,7 @@
         <v>557</v>
       </c>
       <c r="D4" s="7">
-        <v>430368</v>
+        <v>410881</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>227</v>
@@ -3485,7 +3488,7 @@
         <v>1158</v>
       </c>
       <c r="I4" s="7">
-        <v>662444</v>
+        <v>601527</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>230</v>
@@ -3500,7 +3503,7 @@
         <v>1715</v>
       </c>
       <c r="N4" s="7">
-        <v>1092812</v>
+        <v>1012409</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>233</v>
@@ -3521,7 +3524,7 @@
         <v>84</v>
       </c>
       <c r="D5" s="7">
-        <v>67331</v>
+        <v>63225</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>236</v>
@@ -3536,7 +3539,7 @@
         <v>190</v>
       </c>
       <c r="I5" s="7">
-        <v>121490</v>
+        <v>107704</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>239</v>
@@ -3551,7 +3554,7 @@
         <v>274</v>
       </c>
       <c r="N5" s="7">
-        <v>188821</v>
+        <v>170929</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>242</v>
@@ -3572,7 +3575,7 @@
         <v>46</v>
       </c>
       <c r="D6" s="7">
-        <v>40635</v>
+        <v>37702</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>245</v>
@@ -3587,31 +3590,31 @@
         <v>75</v>
       </c>
       <c r="I6" s="7">
-        <v>49422</v>
+        <v>44005</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>248</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M6" s="7">
         <v>121</v>
       </c>
       <c r="N6" s="7">
-        <v>90058</v>
+        <v>81707</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,7 +3626,7 @@
         <v>687</v>
       </c>
       <c r="D7" s="7">
-        <v>538334</v>
+        <v>511808</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -3638,7 +3641,7 @@
         <v>1423</v>
       </c>
       <c r="I7" s="7">
-        <v>833357</v>
+        <v>753236</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -3653,7 +3656,7 @@
         <v>2110</v>
       </c>
       <c r="N7" s="7">
-        <v>1371691</v>
+        <v>1265045</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -3676,46 +3679,46 @@
         <v>1682</v>
       </c>
       <c r="D8" s="7">
-        <v>1814388</v>
+        <v>1959223</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>2434</v>
       </c>
       <c r="I8" s="7">
-        <v>1860797</v>
+        <v>1885420</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M8" s="7">
         <v>4116</v>
       </c>
       <c r="N8" s="7">
-        <v>3675185</v>
+        <v>3844642</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3727,46 +3730,46 @@
         <v>229</v>
       </c>
       <c r="D9" s="7">
-        <v>248960</v>
+        <v>236062</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H9" s="7">
         <v>369</v>
       </c>
       <c r="I9" s="7">
-        <v>288377</v>
+        <v>263527</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M9" s="7">
         <v>598</v>
       </c>
       <c r="N9" s="7">
-        <v>537337</v>
+        <v>499589</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,46 +3781,46 @@
         <v>76</v>
       </c>
       <c r="D10" s="7">
-        <v>92852</v>
+        <v>89229</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>225</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H10" s="7">
         <v>111</v>
       </c>
       <c r="I10" s="7">
-        <v>96113</v>
+        <v>85091</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="M10" s="7">
         <v>187</v>
       </c>
       <c r="N10" s="7">
-        <v>188966</v>
+        <v>174320</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,7 +3832,7 @@
         <v>1987</v>
       </c>
       <c r="D11" s="7">
-        <v>2156200</v>
+        <v>2284514</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -3844,7 +3847,7 @@
         <v>2914</v>
       </c>
       <c r="I11" s="7">
-        <v>2245288</v>
+        <v>2234037</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -3859,7 +3862,7 @@
         <v>4901</v>
       </c>
       <c r="N11" s="7">
-        <v>4401488</v>
+        <v>4518551</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -3882,46 +3885,46 @@
         <v>577</v>
       </c>
       <c r="D12" s="7">
-        <v>558500</v>
+        <v>532256</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H12" s="7">
         <v>843</v>
       </c>
       <c r="I12" s="7">
-        <v>595733</v>
+        <v>551810</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M12" s="7">
         <v>1420</v>
       </c>
       <c r="N12" s="7">
-        <v>1154234</v>
+        <v>1084067</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,46 +3936,46 @@
         <v>88</v>
       </c>
       <c r="D13" s="7">
-        <v>95247</v>
+        <v>95180</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H13" s="7">
         <v>129</v>
       </c>
       <c r="I13" s="7">
-        <v>96658</v>
+        <v>88861</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M13" s="7">
         <v>217</v>
       </c>
       <c r="N13" s="7">
-        <v>191905</v>
+        <v>184041</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,46 +3987,46 @@
         <v>14</v>
       </c>
       <c r="D14" s="7">
-        <v>18108</v>
+        <v>18084</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
       </c>
       <c r="I14" s="7">
-        <v>17668</v>
+        <v>16212</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>38</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>88</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>39</v>
       </c>
       <c r="N14" s="7">
-        <v>35776</v>
+        <v>34296</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,7 +4038,7 @@
         <v>679</v>
       </c>
       <c r="D15" s="7">
-        <v>671856</v>
+        <v>645520</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -4050,7 +4053,7 @@
         <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>710059</v>
+        <v>656884</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -4065,7 +4068,7 @@
         <v>1676</v>
       </c>
       <c r="N15" s="7">
-        <v>1381916</v>
+        <v>1302404</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -4088,46 +4091,46 @@
         <v>2816</v>
       </c>
       <c r="D16" s="7">
-        <v>2803257</v>
+        <v>2902361</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H16" s="7">
         <v>4435</v>
       </c>
       <c r="I16" s="7">
-        <v>3118975</v>
+        <v>3038757</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M16" s="7">
         <v>7251</v>
       </c>
       <c r="N16" s="7">
-        <v>5922232</v>
+        <v>5941118</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,46 +4142,46 @@
         <v>401</v>
       </c>
       <c r="D17" s="7">
-        <v>411538</v>
+        <v>394467</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H17" s="7">
         <v>688</v>
       </c>
       <c r="I17" s="7">
-        <v>506525</v>
+        <v>460092</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M17" s="7">
         <v>1089</v>
       </c>
       <c r="N17" s="7">
-        <v>918063</v>
+        <v>854559</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,46 +4193,46 @@
         <v>136</v>
       </c>
       <c r="D18" s="7">
-        <v>151596</v>
+        <v>145015</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H18" s="7">
         <v>211</v>
       </c>
       <c r="I18" s="7">
-        <v>163204</v>
+        <v>145308</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>60</v>
+        <v>326</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M18" s="7">
         <v>347</v>
       </c>
       <c r="N18" s="7">
-        <v>314800</v>
+        <v>290323</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,7 +4244,7 @@
         <v>3353</v>
       </c>
       <c r="D19" s="7">
-        <v>3366391</v>
+        <v>3441843</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -4256,7 +4259,7 @@
         <v>5334</v>
       </c>
       <c r="I19" s="7">
-        <v>3788704</v>
+        <v>3644157</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -4271,7 +4274,7 @@
         <v>8687</v>
       </c>
       <c r="N19" s="7">
-        <v>7155095</v>
+        <v>7086000</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
